--- a/DescriptionReader/1.xlsx
+++ b/DescriptionReader/1.xlsx
@@ -15,136 +15,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
-  <si>
-    <t>Инженерно-геологическое описание выработок</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Выра-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Дата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Абс.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Мощ-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ботка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   буре-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> отметка</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ИГЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Описание грунтов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ния</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> подошвы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ИГЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> абс.от-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   дата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   м</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ИГЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> метка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  замера</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            </t>
-  </si>
-  <si>
-    <t>Уровень</t>
-  </si>
-  <si>
-    <t>подземных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вод </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Глубина</t>
-  </si>
-  <si>
-    <t>подошвы,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      м</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> глубина</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> замера</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>появлен.</t>
   </si>
   <si>
-    <t>у-установ.</t>
-  </si>
-  <si>
     <t>скв.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  отметка</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Абсол.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> устья</t>
-  </si>
-  <si>
-    <t>скв.,  м</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Консистенция</t>
-  </si>
-  <si>
-    <t>и</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> влажность</t>
   </si>
   <si>
     <t>прс</t>
@@ -162,13 +45,13 @@
     <t>2б</t>
   </si>
   <si>
-    <t>Приложение Е</t>
-  </si>
-  <si>
     <t>08.07.23</t>
   </si>
   <si>
     <t>Суглинок коричневый и светло-коричневый. В интервале 2,8-3,0 м прослой песка мелкого водонасыщенного.</t>
+  </si>
+  <si>
+    <t>скв.2</t>
   </si>
 </sst>
 </file>
@@ -178,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -214,11 +97,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -244,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -277,51 +155,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -542,188 +380,123 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,382 +803,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="44.85546875" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="3.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" style="10" customWidth="1"/>
-    <col min="18" max="19" width="3.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" style="10" customWidth="1"/>
-    <col min="21" max="21" width="3.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="3.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="3.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="H1" s="62">
-        <v>57</v>
-      </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12">
+        <v>73.8</v>
+      </c>
+      <c r="D1" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="24">
+        <f>C1-D1</f>
+        <v>73.399999999999991</v>
+      </c>
+      <c r="G1" s="22">
+        <f>D1</f>
+        <v>0.4</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="G2" s="62"/>
-      <c r="H2" s="40"/>
-      <c r="L2" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="72"/>
+    <row r="2" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="26">
+        <f>C1-H2</f>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="J2" s="27" t="str">
+        <f>B1</f>
+        <v>08.07.23</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="F3" s="22" t="s">
+    <row r="3" spans="1:13" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="30">
+        <v>10</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="32">
+        <f>C1-D3</f>
+        <v>63.8</v>
+      </c>
+      <c r="G3" s="33">
+        <f>D3-D1</f>
+        <v>9.6</v>
+      </c>
+      <c r="H3" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="I3" s="37">
+        <f>C1-H3</f>
+        <v>71</v>
+      </c>
+      <c r="J3" s="34" t="str">
+        <f>B1</f>
+        <v>08.07.23</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="T3" s="11"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="22"/>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>73.8</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="24">
+        <f>C4-D4</f>
+        <v>73.399999999999991</v>
+      </c>
+      <c r="G4" s="22">
+        <f>D4</f>
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="I5" s="26">
+        <f>C4-H5</f>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="J5" s="27" t="str">
+        <f>B4</f>
+        <v>08.07.23</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="L5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="30">
+        <v>10</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12">
-        <v>6</v>
-      </c>
-      <c r="G9" s="6">
-        <v>7</v>
-      </c>
-      <c r="H9" s="6">
-        <v>8</v>
-      </c>
-      <c r="I9" s="12">
-        <v>9</v>
-      </c>
-      <c r="J9" s="6">
-        <v>10</v>
-      </c>
-      <c r="K9" s="31">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6">
-        <v>12</v>
-      </c>
-      <c r="M9" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="38">
-        <v>73.8</v>
-      </c>
-      <c r="D10" s="56">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="57">
-        <f>C10-D10</f>
-        <v>73.399999999999991</v>
-      </c>
-      <c r="G10" s="54">
-        <f>D10</f>
-        <v>0.4</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="58">
-        <v>0.7</v>
-      </c>
-      <c r="I11" s="59">
-        <f>C10-H11</f>
-        <v>73.099999999999994</v>
-      </c>
-      <c r="J11" s="60" t="str">
-        <f>B10</f>
+      <c r="F6" s="32">
+        <f>C4-D6</f>
+        <v>63.8</v>
+      </c>
+      <c r="G6" s="33">
+        <f>D6-D4</f>
+        <v>9.6</v>
+      </c>
+      <c r="H6" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="I6" s="37">
+        <f>C4-H6</f>
+        <v>71</v>
+      </c>
+      <c r="J6" s="34" t="str">
+        <f>B4</f>
         <v>08.07.23</v>
       </c>
-      <c r="K11" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="64">
-        <v>10</v>
-      </c>
-      <c r="E12" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="66">
-        <f>C10-D12</f>
-        <v>63.8</v>
-      </c>
-      <c r="G12" s="67">
-        <f>D12-D10</f>
-        <v>9.6</v>
-      </c>
-      <c r="H12" s="70">
-        <v>2.8</v>
-      </c>
-      <c r="I12" s="71">
-        <f>C10-H12</f>
-        <v>71</v>
-      </c>
-      <c r="J12" s="68" t="str">
-        <f>B10</f>
-        <v>08.07.23</v>
-      </c>
-      <c r="K12" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="74"/>
-      <c r="M12" s="76"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="K6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/DescriptionReader/1.xlsx
+++ b/DescriptionReader/1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\GolandProjects\rowsMVP\DescriptionReader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,17 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>появлен.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>скв.1</t>
   </si>
@@ -36,9 +33,6 @@
     <t>Почвенно-растительный слой</t>
   </si>
   <si>
-    <t>установл.</t>
-  </si>
-  <si>
     <t>мягкопластичный</t>
   </si>
   <si>
@@ -52,6 +46,21 @@
   </si>
   <si>
     <t>скв.2</t>
+  </si>
+  <si>
+    <t>2а</t>
+  </si>
+  <si>
+    <t>нс</t>
+  </si>
+  <si>
+    <t>Насыпной грунт</t>
+  </si>
+  <si>
+    <t>тугопластичный</t>
+  </si>
+  <si>
+    <t>Суглинок коричневый и светло-коричневый.</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -164,15 +173,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -361,26 +361,13 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -389,115 +376,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,20 +787,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="44.85546875" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" customWidth="1"/>
@@ -832,206 +816,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10">
+        <v>73.8</v>
+      </c>
+      <c r="D1" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="12">
-        <v>73.8</v>
-      </c>
-      <c r="D1" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="24">
+      <c r="F1" s="22">
         <f>C1-D1</f>
         <v>73.399999999999991</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="20">
         <f>D1</f>
         <v>0.4</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="15"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="I2" s="26">
-        <f>C1-H2</f>
-        <v>73.099999999999994</v>
-      </c>
-      <c r="J2" s="27" t="str">
-        <f>B1</f>
-        <v>08.07.23</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="28">
+        <v>5</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="30">
+        <f>C1-D2</f>
+        <v>68.8</v>
+      </c>
+      <c r="G2" s="30">
+        <f>D2-D1</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="38" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="30">
+      <c r="A3" s="11"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="28">
         <v>10</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="32">
+      <c r="E3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="30">
         <f>C1-D3</f>
         <v>63.8</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="31">
         <f>D3-D1</f>
         <v>9.6</v>
       </c>
-      <c r="H3" s="36">
-        <v>2.8</v>
-      </c>
-      <c r="I3" s="37">
-        <f>C1-H3</f>
-        <v>71</v>
-      </c>
-      <c r="J3" s="34" t="str">
-        <f>B1</f>
-        <v>08.07.23</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="41"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12">
-        <v>73.8</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <f>C4-D4</f>
-        <v>73.399999999999991</v>
-      </c>
-      <c r="G4" s="22">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G4" s="20">
         <f>D4</f>
         <v>0.4</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="I5" s="26">
-        <f>C4-H5</f>
-        <v>73.099999999999994</v>
-      </c>
-      <c r="J5" s="27" t="str">
-        <f>B4</f>
-        <v>08.07.23</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>4</v>
-      </c>
+      <c r="D5" s="28">
+        <v>10</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="30">
+        <f>C4-D5</f>
+        <v>64.5</v>
+      </c>
+      <c r="G5" s="31">
+        <f>D5-D4</f>
+        <v>9.6</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="30">
-        <v>10</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="32">
-        <f>C4-D6</f>
-        <v>63.8</v>
-      </c>
-      <c r="G6" s="33">
-        <f>D6-D4</f>
-        <v>9.6</v>
-      </c>
-      <c r="H6" s="36">
-        <v>2.8</v>
-      </c>
-      <c r="I6" s="37">
-        <f>C4-H6</f>
-        <v>71</v>
-      </c>
-      <c r="J6" s="34" t="str">
-        <f>B4</f>
-        <v>08.07.23</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="41"/>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.51181102362204722" bottom="0.23622047244094491" header="0.39370078740157483" footer="0.19685039370078741"/>
